--- a/work-in-progress/extra/pasen/berekenen-pasen.xlsx
+++ b/work-in-progress/extra/pasen/berekenen-pasen.xlsx
@@ -34,6 +34,190 @@
     <t xml:space="preserve">a</t>
   </si>
   <si>
+    <t xml:space="preserve">MOD(B1,19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUOTIENT(B1,100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOD(B1,100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">QUOTIENT(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,4)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">MOD(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,4)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">QUOTIENT((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+8),25)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">QUOTIENT((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+1),3)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOD((19*B2+B3-B5-B8+15),30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -42,7 +226,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">MOD(</t>
+      <t xml:space="preserve">QUOTIENT(</t>
     </r>
     <r>
       <rPr>
@@ -52,7 +236,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">B1</t>
+      <t xml:space="preserve">B4</t>
     </r>
     <r>
       <rPr>
@@ -62,11 +246,138 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">,19)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
+      <t xml:space="preserve">,4)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">MOD(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,4)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">k</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">MOD((32+2*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+2*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">),7)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">l</t>
   </si>
   <si>
     <r>
@@ -77,7 +388,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">QUOTIENT(</t>
+      <t xml:space="preserve">QUOTIENT((</t>
     </r>
     <r>
       <rPr>
@@ -87,378 +398,6 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">B1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,100)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MOD(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">B1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,100)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">QUOTIENT(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">B3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,4)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MOD(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">B3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,4)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">f</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">QUOTIENT((</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">B3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+8),25)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">QUOTIENT((</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">B3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">B7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+1),3)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOD((19*B2+B3-B5-B8+15),30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">QUOTIENT(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">B4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,4)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MOD(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">B4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,4)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">k</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MOD((32+2*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">B6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+2*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">B10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">B9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">B11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">),7)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">l</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">QUOTIENT((</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">B2</t>
     </r>
     <r>
@@ -502,6 +441,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">QUOTIENT((</t>
     </r>
@@ -511,6 +451,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B9</t>
     </r>
@@ -520,6 +461,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+</t>
     </r>
@@ -529,6 +471,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B12</t>
     </r>
@@ -538,6 +481,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-7*</t>
     </r>
@@ -547,6 +491,7 @@
         <color rgb="FFFF00FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B13</t>
     </r>
@@ -556,6 +501,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+114),31)</t>
     </r>
@@ -570,6 +516,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">MOD((</t>
     </r>
@@ -579,6 +526,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B9</t>
     </r>
@@ -588,6 +536,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+</t>
     </r>
@@ -597,6 +546,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B12</t>
     </r>
@@ -606,6 +556,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-7*</t>
     </r>
@@ -615,6 +566,7 @@
         <color rgb="FFFF00FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B13</t>
     </r>
@@ -624,6 +576,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+114),31)+1</t>
     </r>
@@ -635,6 +588,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DATE(</t>
     </r>
@@ -644,6 +598,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B1</t>
     </r>
@@ -653,6 +608,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -662,6 +618,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B14</t>
     </r>
@@ -671,6 +628,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -680,6 +638,7 @@
         <color rgb="FFFF00FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B15</t>
     </r>
@@ -689,6 +648,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -698,12 +658,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="d&quot;. &quot;mmm&quot;. &quot;yyyy"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="d&quot;. &quot;mmm&quot;. &quot;yyyy"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -741,6 +702,52 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF00A933"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF3465A4"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Courier New"/>
@@ -749,33 +756,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF00FF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF008000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -827,7 +818,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -840,7 +831,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -848,15 +843,27 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -869,6 +876,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF3465A4"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF00A933"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -880,14 +947,14 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.14"/>
   </cols>
   <sheetData>
@@ -908,136 +975,136 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>2024</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="6" t="n">
         <f aca="false">MOD(C4,19)</f>
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getQuotient(C4,100)</f>
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="8" t="n">
         <f aca="false">MOD(C4,100)</f>
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getQuotient(C6,4)</f>
         <v>5</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <f aca="false">MOD(C6,4)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getQuotient((C6+8),25)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getQuotient((C6-C10+1),3)</f>
         <v>6</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <f aca="false">MOD((19*C5+C6-C8-C11+15),30)</f>
         <v>4</v>
       </c>
@@ -1046,13 +1113,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getQuotient(C7,4)</f>
         <v>6</v>
       </c>
@@ -1061,43 +1128,43 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="3" t="n">
         <f aca="false">MOD(C7,4)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="3" t="n">
         <f aca="false">MOD((32+2*C9+2*C13-C12-C14),7)</f>
         <v>5</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="3" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getQuotient((C5+11*C12+22),451)</f>
         <v>0</v>
       </c>
@@ -1106,43 +1173,43 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="3" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getQuotient((C12+C15-7*C16+114),31)</f>
         <v>3</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="3" t="n">
         <f aca="false">MOD((C12+C15-7*C16+114),31)+1</f>
         <v>31</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="10" t="n">
         <f aca="false">DATE(C4,C17,C18)</f>
         <v>45382</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="11" t="s">
         <v>30</v>
       </c>
     </row>

--- a/work-in-progress/extra/pasen/berekenen-pasen.xlsx
+++ b/work-in-progress/extra/pasen/berekenen-pasen.xlsx
@@ -34,19 +34,106 @@
     <t xml:space="preserve">a</t>
   </si>
   <si>
-    <t xml:space="preserve">MOD(B1,19)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">MOD(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,19)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">b</t>
   </si>
   <si>
-    <t xml:space="preserve">QUOTIENT(B1,100)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">QUOTIENT(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,100)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">c</t>
   </si>
   <si>
-    <t xml:space="preserve">MOD(B1,100)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">MOD(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,100)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">d</t>
@@ -58,7 +145,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">QUOTIENT(</t>
     </r>
@@ -68,7 +154,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B3</t>
     </r>
@@ -78,7 +163,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,4)</t>
     </r>
@@ -93,7 +177,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">MOD(</t>
     </r>
@@ -103,7 +186,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B3</t>
     </r>
@@ -113,7 +195,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,4)</t>
     </r>
@@ -128,7 +209,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">QUOTIENT((</t>
     </r>
@@ -138,7 +218,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B3</t>
     </r>
@@ -148,7 +227,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+8),25)</t>
     </r>
@@ -163,7 +241,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">QUOTIENT((</t>
     </r>
@@ -173,7 +250,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B3</t>
     </r>
@@ -183,7 +259,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -193,7 +268,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B7</t>
     </r>
@@ -203,7 +277,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+1),3)</t>
     </r>
@@ -256,7 +329,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">MOD(</t>
     </r>
@@ -266,7 +338,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B4</t>
     </r>
@@ -276,7 +347,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,4)</t>
     </r>
@@ -291,7 +361,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">MOD((32+2*</t>
     </r>
@@ -301,7 +370,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B6</t>
     </r>
@@ -311,7 +379,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+2*</t>
     </r>
@@ -321,7 +388,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B10</t>
     </r>
@@ -331,7 +397,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -341,7 +406,6 @@
         <color rgb="FFFF00FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B9</t>
     </r>
@@ -351,7 +415,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -361,7 +424,6 @@
         <color rgb="FF008000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B11</t>
     </r>
@@ -371,7 +433,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">),7)</t>
     </r>
@@ -441,7 +502,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">QUOTIENT((</t>
     </r>
@@ -451,7 +511,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B9</t>
     </r>
@@ -461,7 +520,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+</t>
     </r>
@@ -471,7 +529,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B12</t>
     </r>
@@ -481,7 +538,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-7*</t>
     </r>
@@ -491,7 +547,6 @@
         <color rgb="FFFF00FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B13</t>
     </r>
@@ -501,7 +556,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+114),31)</t>
     </r>
@@ -516,7 +570,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">MOD((</t>
     </r>
@@ -526,7 +579,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B9</t>
     </r>
@@ -536,7 +588,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+</t>
     </r>
@@ -546,7 +597,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B12</t>
     </r>
@@ -556,7 +606,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-7*</t>
     </r>
@@ -566,7 +615,6 @@
         <color rgb="FFFF00FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B13</t>
     </r>
@@ -576,7 +624,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+114),31)+1</t>
     </r>
@@ -588,7 +635,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DATE(</t>
     </r>
@@ -598,7 +644,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B1</t>
     </r>
@@ -608,7 +653,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -618,7 +662,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B14</t>
     </r>
@@ -628,7 +671,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -638,7 +680,6 @@
         <color rgb="FFFF00FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B15</t>
     </r>
@@ -648,7 +689,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -658,13 +698,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="d&quot;. &quot;mmm&quot;. &quot;yyyy"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="165" formatCode="d&quot;. &quot;mmm&quot;. &quot;yyyy"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -702,52 +741,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF00A933"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF3465A4"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Courier New"/>
@@ -756,17 +749,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF00FF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF008000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -818,7 +827,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -831,11 +840,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -843,27 +848,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -876,66 +869,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF3465A4"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00A933"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -947,14 +880,14 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.14"/>
   </cols>
   <sheetData>
@@ -975,136 +908,136 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="2" t="n">
         <v>2024</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="2" t="n">
         <f aca="false">MOD(C4,19)</f>
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getQuotient(C4,100)</f>
         <v>20</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="2" t="n">
         <f aca="false">MOD(C4,100)</f>
         <v>24</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getQuotient(C6,4)</f>
         <v>5</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="2" t="n">
         <f aca="false">MOD(C6,4)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getQuotient((C6+8),25)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getQuotient((C6-C10+1),3)</f>
         <v>6</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="2" t="n">
         <f aca="false">MOD((19*C5+C6-C8-C11+15),30)</f>
         <v>4</v>
       </c>
@@ -1113,13 +1046,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getQuotient(C7,4)</f>
         <v>6</v>
       </c>
@@ -1128,43 +1061,43 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="2" t="n">
         <f aca="false">MOD(C7,4)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="2" t="n">
         <f aca="false">MOD((32+2*C9+2*C13-C12-C14),7)</f>
         <v>5</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getQuotient((C5+11*C12+22),451)</f>
         <v>0</v>
       </c>
@@ -1173,43 +1106,43 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getQuotient((C12+C15-7*C16+114),31)</f>
         <v>3</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="2" t="n">
         <f aca="false">MOD((C12+C15-7*C16+114),31)+1</f>
         <v>31</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="6" t="n">
         <f aca="false">DATE(C4,C17,C18)</f>
         <v>45382</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="7" t="s">
         <v>30</v>
       </c>
     </row>
